--- a/CustomLocalization-RU/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
+++ b/CustomLocalization-RU/Localization/RogueTech/RU/Base UrbanWarfare Unique/LocalizationDef.xlsx
@@ -423,14 +423,14 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.140625" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
